--- a/Import Data/5x3.xlsx
+++ b/Import Data/5x3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\GitHub\dbf-propulsions\Import Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DE63B1F-ABDB-4C95-A480-A82C3B822AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99848D5D-B5FA-4EC3-8E5B-AFE524425A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="600" windowWidth="28800" windowHeight="21000" xr2:uid="{3EC77CF2-F9BD-4363-A6BE-CDA3B263F05E}"/>
+    <workbookView xWindow="18450" yWindow="5100" windowWidth="14130" windowHeight="14790" xr2:uid="{3EC77CF2-F9BD-4363-A6BE-CDA3B263F05E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,30 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="46">
   <si>
     <t>5x3</t>
   </si>
@@ -196,24 +174,6 @@
   </si>
   <si>
     <t>(Lbf)</t>
-  </si>
-  <si>
-    <t>0.23-NaN</t>
-  </si>
-  <si>
-    <t>0.37-NaN</t>
-  </si>
-  <si>
-    <t>0.57-NaN</t>
-  </si>
-  <si>
-    <t>0.77-NaN</t>
-  </si>
-  <si>
-    <t>0.60-NaN</t>
-  </si>
-  <si>
-    <t>0.62-NaN</t>
   </si>
 </sst>
 </file>
@@ -569,7 +529,7 @@
   <dimension ref="A1:I1564"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="I1358" sqref="I1358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31213,28 +31173,26 @@
       <c r="A1358">
         <v>39.799999999999997</v>
       </c>
-      <c r="B1358" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1358" t="e" cm="1">
-        <f t="array" ref="C1358">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D1358" t="e" cm="1">
-        <f t="array" ref="D1358">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E1358" t="e" cm="1">
-        <f t="array" ref="E1358">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F1358" t="e" cm="1">
-        <f t="array" ref="F1358">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G1358" t="e" cm="1">
-        <f t="array" ref="G1358">-NaN</f>
-        <v>#NAME?</v>
+      <c r="B1358">
+        <v>0.23</v>
+      </c>
+      <c r="C1358">
+        <v>0</v>
+      </c>
+      <c r="D1358">
+        <v>0</v>
+      </c>
+      <c r="E1358">
+        <v>0</v>
+      </c>
+      <c r="F1358">
+        <v>0</v>
+      </c>
+      <c r="G1358">
+        <v>0</v>
+      </c>
+      <c r="H1358">
+        <v>0</v>
       </c>
     </row>
     <row r="1359" spans="1:8" x14ac:dyDescent="0.25">
@@ -33025,28 +32983,26 @@
       <c r="A1437">
         <v>68.2</v>
       </c>
-      <c r="B1437" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1437" t="e" cm="1">
-        <f t="array" ref="C1437">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D1437" t="e" cm="1">
-        <f t="array" ref="D1437">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E1437" t="e" cm="1">
-        <f t="array" ref="E1437">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F1437" t="e" cm="1">
-        <f t="array" ref="F1437">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G1437" t="e" cm="1">
-        <f t="array" ref="G1437">-NaN</f>
-        <v>#NAME?</v>
+      <c r="B1437">
+        <v>0.37</v>
+      </c>
+      <c r="C1437">
+        <v>0</v>
+      </c>
+      <c r="D1437">
+        <v>0</v>
+      </c>
+      <c r="E1437">
+        <v>0</v>
+      </c>
+      <c r="F1437">
+        <v>0</v>
+      </c>
+      <c r="G1437">
+        <v>0</v>
+      </c>
+      <c r="H1437">
+        <v>0</v>
       </c>
     </row>
     <row r="1438" spans="1:8" x14ac:dyDescent="0.25">
@@ -34049,28 +34005,26 @@
       <c r="A1481">
         <v>110</v>
       </c>
-      <c r="B1481" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1481" t="e" cm="1">
-        <f t="array" ref="C1481">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D1481" t="e" cm="1">
-        <f t="array" ref="D1481">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E1481" t="e" cm="1">
-        <f t="array" ref="E1481">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F1481" t="e" cm="1">
-        <f t="array" ref="F1481">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G1481" t="e" cm="1">
-        <f t="array" ref="G1481">-NaN</f>
-        <v>#NAME?</v>
+      <c r="B1481">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C1481">
+        <v>0</v>
+      </c>
+      <c r="D1481">
+        <v>0</v>
+      </c>
+      <c r="E1481">
+        <v>0</v>
+      </c>
+      <c r="F1481">
+        <v>0</v>
+      </c>
+      <c r="G1481">
+        <v>0</v>
+      </c>
+      <c r="H1481">
+        <v>0</v>
       </c>
     </row>
     <row r="1482" spans="1:8" x14ac:dyDescent="0.25">
@@ -34233,28 +34187,26 @@
       <c r="A1488">
         <v>148.5</v>
       </c>
-      <c r="B1488" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1488" t="e" cm="1">
-        <f t="array" ref="C1488">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D1488" t="e" cm="1">
-        <f t="array" ref="D1488">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E1488" t="e" cm="1">
-        <f t="array" ref="E1488">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F1488" t="e" cm="1">
-        <f t="array" ref="F1488">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G1488" t="e" cm="1">
-        <f t="array" ref="G1488">-NaN</f>
-        <v>#NAME?</v>
+      <c r="B1488">
+        <v>0.77</v>
+      </c>
+      <c r="C1488">
+        <v>0</v>
+      </c>
+      <c r="D1488">
+        <v>0</v>
+      </c>
+      <c r="E1488">
+        <v>0</v>
+      </c>
+      <c r="F1488">
+        <v>0</v>
+      </c>
+      <c r="G1488">
+        <v>0</v>
+      </c>
+      <c r="H1488">
+        <v>0</v>
       </c>
     </row>
     <row r="1489" spans="1:8" x14ac:dyDescent="0.25">
@@ -34919,28 +34871,26 @@
       <c r="A1519">
         <v>118.6</v>
       </c>
-      <c r="B1519" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1519" t="e" cm="1">
-        <f t="array" ref="C1519">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D1519" t="e" cm="1">
-        <f t="array" ref="D1519">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E1519" t="e" cm="1">
-        <f t="array" ref="E1519">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F1519" t="e" cm="1">
-        <f t="array" ref="F1519">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G1519" t="e" cm="1">
-        <f t="array" ref="G1519">-NaN</f>
-        <v>#NAME?</v>
+      <c r="B1519">
+        <v>-0.6</v>
+      </c>
+      <c r="C1519">
+        <v>0</v>
+      </c>
+      <c r="D1519">
+        <v>0</v>
+      </c>
+      <c r="E1519">
+        <v>0</v>
+      </c>
+      <c r="F1519">
+        <v>0</v>
+      </c>
+      <c r="G1519">
+        <v>0</v>
+      </c>
+      <c r="H1519">
+        <v>0</v>
       </c>
     </row>
     <row r="1520" spans="1:8" x14ac:dyDescent="0.25">
@@ -35787,28 +35737,26 @@
       <c r="A1557">
         <v>129.6</v>
       </c>
-      <c r="B1557" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1557" t="e" cm="1">
-        <f t="array" ref="C1557">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D1557" t="e" cm="1">
-        <f t="array" ref="D1557">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E1557" t="e" cm="1">
-        <f t="array" ref="E1557">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F1557" t="e" cm="1">
-        <f t="array" ref="F1557">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G1557" t="e" cm="1">
-        <f t="array" ref="G1557">-NaN</f>
-        <v>#NAME?</v>
+      <c r="B1557">
+        <v>0.62</v>
+      </c>
+      <c r="C1557">
+        <v>0</v>
+      </c>
+      <c r="D1557">
+        <v>0</v>
+      </c>
+      <c r="E1557">
+        <v>0</v>
+      </c>
+      <c r="F1557">
+        <v>0</v>
+      </c>
+      <c r="G1557">
+        <v>0</v>
+      </c>
+      <c r="H1557">
+        <v>0</v>
       </c>
     </row>
     <row r="1558" spans="1:8" x14ac:dyDescent="0.25">
